--- a/config/search_keywords_2025_test.xlsx
+++ b/config/search_keywords_2025_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monitoring_article\news_monitoring_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D420298D-BFE1-4D50-ABB3-D2FFC3A3B7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122BC84-5F5F-4A44-9E2F-E9C0FC50493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="1536" windowWidth="21972" windowHeight="11028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="1932" windowWidth="21972" windowHeight="11028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="검색어 목록" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>JTBC</t>
+    <t>검색어명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>검색어명</t>
+    <t>MBC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,20 +307,20 @@
   </sheetPr>
   <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
